--- a/code/Example_A.xlsx
+++ b/code/Example_A.xlsx
@@ -530,7 +530,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -564,6 +564,11 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>start</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
@@ -587,16 +592,19 @@
         <v>10</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Comparison</t>
+          <t>Failure treatment</t>
         </is>
       </c>
       <c r="C3">
@@ -609,6 +617,34 @@
         <v>0</v>
       </c>
       <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Comparison</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>6</v>
       </c>
     </row>
